--- a/data/trans_dic/P19C06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008021241715569536</v>
+        <v>0.007772291092082205</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002568806128882249</v>
+        <v>0.002555494229638433</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004061569926513811</v>
+        <v>0.003994329321638151</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005489455599225764</v>
+        <v>0.005334676441933381</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004106280364452083</v>
+        <v>0.003959848728870577</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.007174255993252585</v>
+        <v>0.00731461801606832</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008180205988852305</v>
+        <v>0.008133081813607487</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.008756179555614576</v>
+        <v>0.008815091244933931</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.007434667007149137</v>
+        <v>0.00733373769576813</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006329498440652451</v>
+        <v>0.006233216190004203</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.007827470873630128</v>
+        <v>0.008248573623814669</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.008789076527047909</v>
+        <v>0.008732284294768024</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02704888950625583</v>
+        <v>0.02819539854625613</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01460485640662428</v>
+        <v>0.0155961143630409</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02427416211654238</v>
+        <v>0.0231934645740273</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03524649057587879</v>
+        <v>0.03461305647349962</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01620075172900542</v>
+        <v>0.01606130368458495</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01980240878191468</v>
+        <v>0.02033761836843081</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02835581868902655</v>
+        <v>0.0286376929967126</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02325720819276705</v>
+        <v>0.02333119461122811</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01831018397106262</v>
+        <v>0.01702413226297159</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01539393371251168</v>
+        <v>0.01506513807560662</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02258483504011643</v>
+        <v>0.02281310820920527</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02171863362456157</v>
+        <v>0.02217579512563376</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005031674492999233</v>
+        <v>0.004780890494680161</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006469560753230221</v>
+        <v>0.006620597511556319</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008366679331390717</v>
+        <v>0.008633440473655081</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003842917217319896</v>
+        <v>0.003828123225204402</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.006582295380643637</v>
+        <v>0.006858357196915236</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0102491160579213</v>
+        <v>0.009638238613952325</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007463317234944165</v>
+        <v>0.007189716879200917</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005376656903309597</v>
+        <v>0.005436938006792139</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.006637727456110942</v>
+        <v>0.006856579003581009</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009293579278049089</v>
+        <v>0.009097563068898107</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.008790818491770769</v>
+        <v>0.009225117355788548</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.005455849970660596</v>
+        <v>0.005467819184128203</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01567277967665765</v>
+        <v>0.01521664407260894</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01816169748879406</v>
+        <v>0.01746694714260351</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02069179586356126</v>
+        <v>0.02127815637441042</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01135681596873618</v>
+        <v>0.01191962148511668</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01839835563144061</v>
+        <v>0.01906747584557051</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02334227559688616</v>
+        <v>0.02210035800296114</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01765406107046305</v>
+        <v>0.01832701105108627</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01269570651629741</v>
+        <v>0.01278945900912327</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01445583063544384</v>
+        <v>0.01465268661431165</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0179246539934869</v>
+        <v>0.01767913253623871</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01723298798414997</v>
+        <v>0.01696619598096442</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01062062665471982</v>
+        <v>0.01053550120007378</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002223299117955997</v>
+        <v>0.002255625411758137</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004394050901504986</v>
+        <v>0.004422340186883057</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002074627718470284</v>
+        <v>0.002090227560178896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00218573533006563</v>
+        <v>0.002186013559079307</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007698175933462204</v>
+        <v>0.007746896499531562</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005437488839679072</v>
+        <v>0.00575857609226975</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006562180037678807</v>
+        <v>0.007335116684952251</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007863770095201466</v>
+        <v>0.007488282569494327</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006918162466038758</v>
+        <v>0.006730338172048879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.006860273384185007</v>
+        <v>0.006997473472425094</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.006178290994432659</v>
+        <v>0.006195079118567025</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.006402117185457277</v>
+        <v>0.006703540856709577</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02399219985327165</v>
+        <v>0.0244222874001258</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02862994291554575</v>
+        <v>0.02774731340527424</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0205681451824981</v>
+        <v>0.02087192040508797</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01528465230443836</v>
+        <v>0.01483127120676575</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03668150434591572</v>
+        <v>0.03491543196676709</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03186239473898617</v>
+        <v>0.03161282781227253</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03220349391199905</v>
+        <v>0.03207078332400808</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02394138568676445</v>
+        <v>0.02371673439813642</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02332037230060034</v>
+        <v>0.02340048069378695</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02323339418483368</v>
+        <v>0.02342349545697308</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02090598404324363</v>
+        <v>0.02101109146954978</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01605343716847857</v>
+        <v>0.01598324754310573</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.01191090884755283</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.007710996409851523</v>
+        <v>0.007710996409851525</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.0113049266740139</v>
@@ -1105,7 +1105,7 @@
         <v>0.0126846373617044</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.009395374330705133</v>
+        <v>0.00939537433070513</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007147232851096902</v>
+        <v>0.007156884207620992</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006230953584823067</v>
+        <v>0.006583637009573469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008267782379023873</v>
+        <v>0.008050625110830285</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005133158351163044</v>
+        <v>0.005168021605810205</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008086496470269313</v>
+        <v>0.007911422793353384</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01032454404768667</v>
+        <v>0.01051904286076483</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009731454420950742</v>
+        <v>0.009581619007714228</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.008384433679876662</v>
+        <v>0.008356978107244948</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.008656045164250567</v>
+        <v>0.008725999643284918</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.009505581235940778</v>
+        <v>0.009457075112007288</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.009743012249110951</v>
+        <v>0.009658236499900564</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.007422744977380618</v>
+        <v>0.007336532966959969</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01598676159928088</v>
+        <v>0.01562843073179364</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01378876503037704</v>
+        <v>0.01407759556910065</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01796501876591544</v>
+        <v>0.01736098697673421</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01160444750033012</v>
+        <v>0.01188881901878143</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0161338084125114</v>
+        <v>0.01584496231151602</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01987638192017283</v>
+        <v>0.01961028401846842</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01812527139452403</v>
+        <v>0.01831607871627887</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01428160312146689</v>
+        <v>0.01414197088268795</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01429731763218028</v>
+        <v>0.01444026151979718</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01527227929610135</v>
+        <v>0.01565568875931687</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01612362672040712</v>
+        <v>0.01587199520594127</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01186825854391917</v>
+        <v>0.01188977471258848</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5530</v>
+        <v>5358</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1858</v>
+        <v>1827</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2949</v>
+        <v>2866</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3938</v>
+        <v>3797</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8094</v>
+        <v>8253</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5226</v>
+        <v>5196</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6870</v>
+        <v>6916</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12255</v>
+        <v>12088</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12073</v>
+        <v>11889</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8581</v>
+        <v>9043</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11618</v>
+        <v>11543</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18647</v>
+        <v>19437</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11380</v>
+        <v>12152</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11103</v>
+        <v>10609</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18937</v>
+        <v>18597</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15536</v>
+        <v>15402</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22342</v>
+        <v>22946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18116</v>
+        <v>18296</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>18247</v>
+        <v>18305</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>30181</v>
+        <v>28061</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>29363</v>
+        <v>28735</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>24760</v>
+        <v>25010</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>28709</v>
+        <v>29314</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6614</v>
+        <v>6284</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10922</v>
+        <v>11177</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14195</v>
+        <v>14648</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8249</v>
+        <v>8217</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9039</v>
+        <v>9418</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16288</v>
+        <v>15317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12753</v>
+        <v>12285</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11348</v>
+        <v>11475</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>17840</v>
+        <v>18428</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>30460</v>
+        <v>29817</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>29936</v>
+        <v>31415</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>23226</v>
+        <v>23277</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20601</v>
+        <v>20001</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30662</v>
+        <v>29489</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35106</v>
+        <v>36101</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24377</v>
+        <v>25585</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>25265</v>
+        <v>26183</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37096</v>
+        <v>35123</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>30166</v>
+        <v>31316</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>26795</v>
+        <v>26993</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>38852</v>
+        <v>39381</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>58748</v>
+        <v>57944</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>58684</v>
+        <v>57775</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>45213</v>
+        <v>44850</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1943</v>
+        <v>1955</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>1534</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3147</v>
+        <v>3167</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2304</v>
+        <v>2440</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3336</v>
+        <v>3729</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5697</v>
+        <v>5425</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5948</v>
+        <v>5786</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5940</v>
+        <v>6059</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6225</v>
+        <v>6242</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9131</v>
+        <v>9561</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10819</v>
+        <v>11013</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12658</v>
+        <v>12268</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10269</v>
+        <v>10420</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10727</v>
+        <v>10409</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14995</v>
+        <v>14273</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13501</v>
+        <v>13395</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>16370</v>
+        <v>16302</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17343</v>
+        <v>17181</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20049</v>
+        <v>20118</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20117</v>
+        <v>20281</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21064</v>
+        <v>21170</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>22896</v>
+        <v>22796</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17545</v>
+        <v>17568</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>18129</v>
+        <v>19156</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21937</v>
+        <v>21360</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17379</v>
+        <v>17497</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>22165</v>
+        <v>21685</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>32431</v>
+        <v>33042</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>27792</v>
+        <v>27364</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>30348</v>
+        <v>30249</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>44974</v>
+        <v>45337</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>57516</v>
+        <v>57223</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>53676</v>
+        <v>53209</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>51998</v>
+        <v>51394</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39243</v>
+        <v>38364</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40120</v>
+        <v>40960</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47666</v>
+        <v>46063</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>39288</v>
+        <v>40251</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>44222</v>
+        <v>43430</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>62436</v>
+        <v>61600</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>51764</v>
+        <v>52309</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>51694</v>
+        <v>51188</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>74284</v>
+        <v>75027</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>92409</v>
+        <v>94729</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>88828</v>
+        <v>87442</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>83139</v>
+        <v>83290</v>
       </c>
     </row>
     <row r="20">
